--- a/Data_science_outputs/800pop/output_results/output_analysis_4.xlsx
+++ b/Data_science_outputs/800pop/output_results/output_analysis_4.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31833.82661917989</v>
+        <v>24394.16842127913</v>
       </c>
       <c r="C3" t="n">
         <v>18381.99558134914</v>
       </c>
       <c r="D3" t="n">
-        <v>7461.077846776989</v>
+        <v>1877.883891196722</v>
       </c>
       <c r="E3" t="n">
-        <v>5785.230031331126</v>
+        <v>4112.394024069348</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10778.25743441817</v>
+        <v>10563.3427216366</v>
       </c>
       <c r="C4" t="n">
         <v>9286.148833471099</v>
       </c>
       <c r="D4" t="n">
-        <v>6405.776552582578</v>
+        <v>1154.239585269906</v>
       </c>
       <c r="E4" t="n">
-        <v>4813.691451375887</v>
+        <v>3102.312427237336</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5167.029000000001</v>
+        <v>4319.034000000001</v>
       </c>
       <c r="C5" t="n">
         <v>3616.015000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>5.001</v>
+        <v>0.004</v>
       </c>
       <c r="E5" t="n">
-        <v>30.03800000000001</v>
+        <v>46.03400000000001</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24650.01475</v>
+        <v>15985.026</v>
       </c>
       <c r="C6" t="n">
         <v>11282.52325</v>
       </c>
       <c r="D6" t="n">
-        <v>860.0050000000001</v>
+        <v>790.005</v>
       </c>
       <c r="E6" t="n">
-        <v>2355.003</v>
+        <v>2021.002</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30651.51450000005</v>
+        <v>22126.56050000007</v>
       </c>
       <c r="C7" t="n">
         <v>15620.001</v>
       </c>
       <c r="D7" t="n">
-        <v>6740</v>
+        <v>1845.01</v>
       </c>
       <c r="E7" t="n">
-        <v>4350.023999999999</v>
+        <v>3260.008</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40287.81475000005</v>
+        <v>32806.71175000008</v>
       </c>
       <c r="C8" t="n">
         <v>25276.34850000004</v>
       </c>
       <c r="D8" t="n">
-        <v>14255</v>
+        <v>3002.003</v>
       </c>
       <c r="E8" t="n">
-        <v>7267.007</v>
+        <v>4996.013249999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77272.36700000001</v>
+        <v>62322.24400000002</v>
       </c>
       <c r="C9" t="n">
         <v>40328.344</v>
       </c>
       <c r="D9" t="n">
-        <v>15713</v>
+        <v>6053.007000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>42130.01</v>
+        <v>32035.006</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>16731859271.04502</v>
+        <v>12821574922.22701</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>185290515.4600003</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5838920643572231</v>
+        <v>0.7544381176757862</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>3921542516.273</v>
+        <v>987015773.2130002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2343757769382717</v>
+        <v>0.0769808529139385</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3040716904.467</v>
+        <v>2161474299.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1817321587045052</v>
+        <v>0.1685810294102753</v>
       </c>
     </row>
   </sheetData>
